--- a/UT_Report_BZBC_71.xlsx
+++ b/UT_Report_BZBC_71.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\bfl.local\dfsroot\Users\majjs\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8227B044-64AD-4C88-BA56-5A1BDD627F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AF973-2A15-4D3A-9454-75E8BA289872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="7890" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Instructions" sheetId="2" r:id="rId2"/>
     <sheet name="TC_Summary" sheetId="3" r:id="rId3"/>
     <sheet name="TC" sheetId="4" r:id="rId4"/>
-    <sheet name="Screenshots" sheetId="5" r:id="rId5"/>
+    <sheet name="Screenshots" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>INSTRUCTIONS</t>
   </si>
@@ -136,150 +136,46 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>BZBC-163</t>
-  </si>
-  <si>
-    <t>https://beazley.atlassian.net/browse/BZBC-163</t>
-  </si>
-  <si>
     <t>Sruthi Majjiga</t>
   </si>
   <si>
-    <t xml:space="preserve">In the billing Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beazley Agency Bill Plan</t>
-  </si>
-  <si>
-    <t>Beazley Payment Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Beazley Return Premium Plan</t>
-  </si>
-  <si>
-    <t>Beazley Delinquency Plan</t>
-  </si>
-  <si>
-    <t>Beazley Commission Plan</t>
-  </si>
-  <si>
-    <t>Beazley Payment Allocation Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beazley Billing Plan </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the  Agency Bill Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the  Payment Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the Delinquency Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the Return Premium Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the  Commission Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the  Payment Allocation Plan screen the effective date should be 27/08/2024 . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Billing Plan Effective date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agency Bill Effective Date </t>
-  </si>
-  <si>
-    <t>Payment Plan Effective Date</t>
-  </si>
-  <si>
-    <t>Delinquency Plan Effective Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return Premium plan effective Date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commissions Plan Effecting Date </t>
-  </si>
-  <si>
-    <t>Payment Allocation Plan Effective Date</t>
-  </si>
-  <si>
-    <t>Billing Plan Effective date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Agency Bill Effective Date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Payment Plan Effective Date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Delinquency Plan effective date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Return Premium plan effective Date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Commissions Plan Effecting Date 
-should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Payment Allocation Plan Effective
- Date should be displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Billing Plan Effective date is displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Agency Bill Effective Date is displlayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Payment Plan Effective Date is displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Delinquency Plan effective date is  displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Return Premium plan effective Date is displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Commissions Plan Effecting Date 
-is displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Payment Allocation Plan Effective
- Date is  displayed as 27/08/2024</t>
-  </si>
-  <si>
-    <t>Agency Bill Plan</t>
-  </si>
-  <si>
-    <t>Billing Plan:</t>
-  </si>
-  <si>
-    <t>Commission Plan</t>
-  </si>
-  <si>
-    <t>Default Payment Allocation Plan</t>
-  </si>
-  <si>
-    <t>Delinquency Plan</t>
-  </si>
-  <si>
-    <t>Payment Plan</t>
-  </si>
-  <si>
-    <t>Return Premium Plan</t>
+    <t>https://beazley.atlassian.net/browse/BZBC-71</t>
+  </si>
+  <si>
+    <t>BZBC-71</t>
+  </si>
+  <si>
+    <t>To add the new fields</t>
+  </si>
+  <si>
+    <t>To add the new fields in the ProducerAgencyBillCycle.pcf
+1.Policy Number 
+2.Insured Name</t>
+  </si>
+  <si>
+    <t>The new field should appear in the Agency Bill Cycles page</t>
+  </si>
+  <si>
+    <t>To hide the Filter</t>
+  </si>
+  <si>
+    <t>To hoide the invoice stream filter in the ProducerAgencyBillCycle.pcf</t>
+  </si>
+  <si>
+    <t>To hide the exstinting filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Modify the field name </t>
+  </si>
+  <si>
+    <t>The filed Billing instruction should be modified as Transaction Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -336,23 +232,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -512,9 +391,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,13 +462,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -599,8 +471,20 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,361 +896,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>486833</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>372537</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27934</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808E5627-B204-CC50-2007-2F7E2408F607}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2032000" y="306917"/>
-          <a:ext cx="7611537" cy="2991267"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>46567</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>42795</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF8A31F0-1B40-C4A1-6CFD-B1EB1907B017}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1545167" y="3746500"/>
-          <a:ext cx="7772400" cy="3059045"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>74084</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>120651</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>137717</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE440937-5C5C-B315-4A7F-97639F7F9779}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2391834" y="7291917"/>
-          <a:ext cx="7772400" cy="3736050"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>554568</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>9840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6745A5DB-F7CA-D7DA-A347-D90C28C0AD22}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2825751" y="11271251"/>
-          <a:ext cx="7772400" cy="3438839"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>582083</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>29709</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2D4408-BD12-8923-C4CF-5D7FC5EFD59F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2899833" y="14986000"/>
-          <a:ext cx="7772400" cy="3712709"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>586317</xdr:colOff>
-      <xdr:row>137</xdr:row>
-      <xdr:rowOff>27133</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2769078-3E2C-8E90-CBF7-6365BE0EEED6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2857500" y="18954750"/>
-          <a:ext cx="7772400" cy="3075133"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>522817</xdr:colOff>
-      <xdr:row>159</xdr:row>
-      <xdr:rowOff>11936</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23BF6F3C-06E1-312B-76BA-9A3DDB219CEB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2794000" y="22225000"/>
-          <a:ext cx="7772400" cy="3282186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
@@ -1514,192 +1043,192 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
     </row>
     <row r="6" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
     </row>
     <row r="8" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
     </row>
     <row r="9" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
     </row>
     <row r="14" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
     </row>
     <row r="15" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:14" ht="42.4" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1746,10 +1275,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="25.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="2:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
@@ -1764,14 +1293,14 @@
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1780,7 +1309,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,7 +1317,7 @@
         <v>25</v>
       </c>
       <c r="C8" s="9">
-        <v>45588</v>
+        <v>45589</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -1820,7 +1349,7 @@
   <dimension ref="B1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1890,171 +1419,115 @@
       <c r="Q2" s="7"/>
     </row>
     <row r="3" spans="2:17" s="8" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="10">
+      <c r="B3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="28">
+        <v>2</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="28">
+        <v>3</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="E5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="23"/>
-    </row>
-    <row r="4" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="23"/>
-    </row>
-    <row r="5" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
-        <v>4</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="23"/>
     </row>
     <row r="7" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
-        <v>5</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="23"/>
     </row>
     <row r="8" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
-        <v>6</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
-        <v>7</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>28</v>
-      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="19"/>
     </row>
     <row r="10" spans="2:17" ht="85.15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,90 +1711,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:C140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9937C29-7844-4FA8-B426-DABB43CD8C3F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C144" sqref="C144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="11.5703125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="26"/>
-    </row>
-    <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="25"/>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="25"/>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6"/>
-    </row>
-    <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="25"/>
-    </row>
-    <row r="8" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="24"/>
-    </row>
-    <row r="10" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="24"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" s="26"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="26"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>